--- a/data/intermediate/cs_w1_10/pd_positive_train.xlsx
+++ b/data/intermediate/cs_w1_10/pd_positive_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>SentenceID</t>
   </si>
@@ -25,10 +25,16 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>a welcome relief from baseball movie that try too hard to be mythic this one sweet and modest ultimately win story so i like it.</t>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>i still like moonlight mile better judgment be damn worth seeing.</t>
   </si>
   <si>
     <t>the importance of be earnest so thick with wit it play like a read from bartlett familiar quotation i</t>
+  </si>
+  <si>
+    <t>Train</t>
   </si>
 </sst>
 </file>
@@ -386,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,22 +408,28 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -425,10 +437,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
